--- a/pythonCode/CH3/vmstat/vmstat.xlsx
+++ b/pythonCode/CH3/vmstat/vmstat.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>b'2022-02-18</t>
   </si>
   <si>
-    <t>02:20:14</t>
+    <t>02:47:32</t>
   </si>
   <si>
     <t>procs</t>
@@ -97,25 +97,25 @@
     <t>0</t>
   </si>
   <si>
-    <t>376748</t>
+    <t>360348</t>
   </si>
   <si>
     <t>2108</t>
   </si>
   <si>
-    <t>218752</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>54</t>
+    <t>233356</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>100</t>
@@ -124,37 +124,43 @@
     <t>0\n2022-02-18</t>
   </si>
   <si>
-    <t>02:20:15</t>
-  </si>
-  <si>
-    <t>376624</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>02:20:16</t>
-  </si>
-  <si>
-    <t>376632</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>02:20:17</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>02:20:18</t>
+    <t>02:47:33</t>
+  </si>
+  <si>
+    <t>359976</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>02:47:34</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>02:47:35</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>02:47:36</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
   <si>
     <t>0\n'</t>
@@ -695,7 +701,7 @@
         <v>26</v>
       </c>
       <c r="BO1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BP1" t="s">
         <v>28</v>
@@ -713,10 +719,10 @@
         <v>26</v>
       </c>
       <c r="BU1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="BV1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BW1" t="s">
         <v>42</v>
@@ -749,7 +755,7 @@
         <v>26</v>
       </c>
       <c r="CG1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="CH1" t="s">
         <v>28</v>
@@ -803,7 +809,7 @@
         <v>26</v>
       </c>
       <c r="CY1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="CZ1" t="s">
         <v>28</v>
@@ -824,10 +830,10 @@
         <v>26</v>
       </c>
       <c r="DF1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="DG1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="DH1" t="s">
         <v>26</v>
@@ -842,7 +848,7 @@
         <v>26</v>
       </c>
       <c r="DL1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/pythonCode/CH3/vmstat/vmstat.xlsx
+++ b/pythonCode/CH3/vmstat/vmstat.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t>b'2022-02-18</t>
   </si>
   <si>
-    <t>02:47:32</t>
+    <t>03:09:37</t>
   </si>
   <si>
     <t>procs</t>
@@ -37,7 +37,10 @@
     <t>-system--</t>
   </si>
   <si>
-    <t>------cpu-----\n2022-02-18</t>
+    <t>------cpu-----</t>
+  </si>
+  <si>
+    <t>n2022-02-18</t>
   </si>
   <si>
     <t>r</t>
@@ -88,7 +91,7 @@
     <t>wa</t>
   </si>
   <si>
-    <t>st\n2022-02-18</t>
+    <t>st</t>
   </si>
   <si>
     <t>2</t>
@@ -97,73 +100,73 @@
     <t>0</t>
   </si>
   <si>
-    <t>360348</t>
+    <t>359564</t>
   </si>
   <si>
     <t>2108</t>
   </si>
   <si>
-    <t>233356</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>233484</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>0\n2022-02-18</t>
-  </si>
-  <si>
-    <t>02:47:33</t>
-  </si>
-  <si>
-    <t>359976</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>02:47:34</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>02:47:35</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>02:47:36</t>
+    <t>03:09:38</t>
+  </si>
+  <si>
+    <t>359440</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>03:09:39</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>03:09:40</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>03:09:41</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>0\n'</t>
+    <t>61</t>
+  </si>
+  <si>
+    <t>n'</t>
   </si>
 </sst>
 </file>
@@ -495,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DL1"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:116">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,329 +529,364 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AW1" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY1" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="M4" t="s">
         <v>39</v>
       </c>
-      <c r="BF1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ1" t="s">
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
         <v>35</v>
       </c>
-      <c r="BK1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BO1" t="s">
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="BP1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BQ1" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="BR1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BW1" t="s">
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
         <v>42</v>
       </c>
-      <c r="BX1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CB1" t="s">
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
         <v>35</v>
       </c>
-      <c r="CC1" t="s">
-        <v>43</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CG1" t="s">
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="CH1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CI1" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="CJ1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>44</v>
-      </c>
-      <c r="CO1" t="s">
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
         <v>45</v>
       </c>
-      <c r="CP1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CT1" t="s">
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
         <v>35</v>
       </c>
-      <c r="CU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CY1" t="s">
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="CZ1" t="s">
-        <v>28</v>
-      </c>
-      <c r="DA1" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="DB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>26</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>26</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>47</v>
-      </c>
-      <c r="DG1" t="s">
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
         <v>48</v>
       </c>
-      <c r="DH1" t="s">
-        <v>26</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>26</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>26</v>
-      </c>
-      <c r="DL1" t="s">
+      <c r="N7" t="s">
         <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
